--- a/AutoMovieEditDB.xlsx
+++ b/AutoMovieEditDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noguhiro/Desktop/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D758143-0296-CD48-B8D6-E7BEEA945D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371F867-5469-3A48-95FE-041A82E857F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="760" windowWidth="19560" windowHeight="16260" xr2:uid="{8ABE5D2A-51F5-8F4F-9820-FC6DCF40045B}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,6 +590,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -613,6 +616,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -627,6 +633,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -650,6 +659,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -673,6 +685,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
